--- a/nlp/src/data/train_dataset.xlsx
+++ b/nlp/src/data/train_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\part-time\sentiment-classification\nlp\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E84532-67E9-4D80-88EC-06132A7FC7B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE457A8E-78AD-4EF7-ACD2-B8C0CE65A4A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4064" uniqueCount="1371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4066" uniqueCount="1373">
   <si>
     <t>id</t>
   </si>
@@ -4408,6 +4408,12 @@
   </si>
   <si>
     <t>sentiment</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>fix</t>
   </si>
 </sst>
 </file>
@@ -4540,6 +4546,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4558,7 +4565,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4899,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1214" workbookViewId="0">
-      <selection activeCell="D1230" sqref="D1230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4922,6 +4928,12 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1372</v>
+      </c>
       <c r="H1" s="1" t="s">
         <v>1370</v>
       </c>
@@ -35421,7 +35433,7 @@
         <v>1349</v>
       </c>
       <c r="F1232" s="7"/>
-      <c r="G1232" s="15" t="s">
+      <c r="G1232" s="9" t="s">
         <v>1348</v>
       </c>
       <c r="H1232" t="str">
@@ -38340,10 +38352,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>1348</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>1353</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -38351,31 +38363,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="4" t="s">
         <v>1355</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="4" t="s">
         <v>1356</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="4" t="s">
         <v>1357</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>1350</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>1358</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -38383,24 +38395,24 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
         <v>1360</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="4" t="s">
         <v>1361</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="10" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>1362</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -38408,22 +38420,22 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
         <v>1364</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="4" t="s">
         <v>1365</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="4" t="s">
         <v>1366</v>
       </c>
